--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H2">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I2">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J2">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.12580728471186</v>
+        <v>5.379592</v>
       </c>
       <c r="N2">
-        <v>4.12580728471186</v>
+        <v>16.138776</v>
       </c>
       <c r="O2">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116526</v>
       </c>
       <c r="P2">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116527</v>
       </c>
       <c r="Q2">
-        <v>4.464383500772217</v>
+        <v>6.565069377474666</v>
       </c>
       <c r="R2">
-        <v>4.464383500772217</v>
+        <v>59.08562439727201</v>
       </c>
       <c r="S2">
-        <v>0.004269393749236397</v>
+        <v>0.004874317198846317</v>
       </c>
       <c r="T2">
-        <v>0.004269393749236397</v>
+        <v>0.00487431719884632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H3">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I3">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J3">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.9403220212655</v>
+        <v>13.148327</v>
       </c>
       <c r="N3">
-        <v>12.9403220212655</v>
+        <v>39.444981</v>
       </c>
       <c r="O3">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="P3">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="Q3">
-        <v>14.00224395853033</v>
+        <v>16.04576684490633</v>
       </c>
       <c r="R3">
-        <v>14.00224395853033</v>
+        <v>144.411901604157</v>
       </c>
       <c r="S3">
-        <v>0.01339067148274605</v>
+        <v>0.0119133786413831</v>
       </c>
       <c r="T3">
-        <v>0.01339067148274605</v>
+        <v>0.01191337864138311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H4">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I4">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J4">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.98374011477995</v>
+        <v>5.33802</v>
       </c>
       <c r="N4">
-        <v>4.98374011477995</v>
+        <v>16.01406</v>
       </c>
       <c r="O4">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="P4">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="Q4">
-        <v>5.392720891982743</v>
+        <v>6.51433633598</v>
       </c>
       <c r="R4">
-        <v>5.392720891982743</v>
+        <v>58.62902702382001</v>
       </c>
       <c r="S4">
-        <v>0.005157184382485328</v>
+        <v>0.004836649822846347</v>
       </c>
       <c r="T4">
-        <v>0.005157184382485328</v>
+        <v>0.004836649822846349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H5">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I5">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J5">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.06772483287142</v>
+        <v>5.091788666666666</v>
       </c>
       <c r="N5">
-        <v>5.06772483287142</v>
+        <v>15.275366</v>
       </c>
       <c r="O5">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676195</v>
       </c>
       <c r="P5">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676196</v>
       </c>
       <c r="Q5">
-        <v>5.483597649885106</v>
+        <v>6.213844070722444</v>
       </c>
       <c r="R5">
-        <v>5.483597649885106</v>
+        <v>55.924596636502</v>
       </c>
       <c r="S5">
-        <v>0.005244091939166358</v>
+        <v>0.004613545612905976</v>
       </c>
       <c r="T5">
-        <v>0.005244091939166358</v>
+        <v>0.00461354561290598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H6">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I6">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J6">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.684767107799819</v>
+        <v>0.855806</v>
       </c>
       <c r="N6">
-        <v>0.684767107799819</v>
+        <v>2.567418</v>
       </c>
       <c r="O6">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744256</v>
       </c>
       <c r="P6">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744257</v>
       </c>
       <c r="Q6">
-        <v>0.7409611663785024</v>
+        <v>1.044396259727333</v>
       </c>
       <c r="R6">
-        <v>0.7409611663785024</v>
+        <v>9.399566337546</v>
       </c>
       <c r="S6">
-        <v>0.0007085983925028162</v>
+        <v>0.0007754249587470335</v>
       </c>
       <c r="T6">
-        <v>0.0007085983925028162</v>
+        <v>0.0007754249587470338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H7">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I7">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J7">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.159362987200661</v>
+        <v>10.113102</v>
       </c>
       <c r="N7">
-        <v>9.159362987200661</v>
+        <v>30.339306</v>
       </c>
       <c r="O7">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792178</v>
       </c>
       <c r="P7">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792179</v>
       </c>
       <c r="Q7">
-        <v>9.911007998159107</v>
+        <v>12.341682464298</v>
       </c>
       <c r="R7">
-        <v>9.911007998159107</v>
+        <v>111.075142178682</v>
       </c>
       <c r="S7">
-        <v>0.009478127402955696</v>
+        <v>0.009163235243915727</v>
       </c>
       <c r="T7">
-        <v>0.009478127402955696</v>
+        <v>0.009163235243915732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H8">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I8">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J8">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.12580728471186</v>
+        <v>5.379592</v>
       </c>
       <c r="N8">
-        <v>4.12580728471186</v>
+        <v>16.138776</v>
       </c>
       <c r="O8">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116526</v>
       </c>
       <c r="P8">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116527</v>
       </c>
       <c r="Q8">
-        <v>55.88596845619929</v>
+        <v>73.05298188239199</v>
       </c>
       <c r="R8">
-        <v>55.88596845619929</v>
+        <v>657.4768369415279</v>
       </c>
       <c r="S8">
-        <v>0.05344505111526564</v>
+        <v>0.0542390926192045</v>
       </c>
       <c r="T8">
-        <v>0.05344505111526564</v>
+        <v>0.05423909261920452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H9">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I9">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J9">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.9403220212655</v>
+        <v>13.148327</v>
       </c>
       <c r="N9">
-        <v>12.9403220212655</v>
+        <v>39.444981</v>
       </c>
       <c r="O9">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="P9">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="Q9">
-        <v>175.2826485554113</v>
+        <v>178.549691893877</v>
       </c>
       <c r="R9">
-        <v>175.2826485554113</v>
+        <v>1606.947227044893</v>
       </c>
       <c r="S9">
-        <v>0.1676268725486125</v>
+        <v>0.1325664336515831</v>
       </c>
       <c r="T9">
-        <v>0.1676268725486125</v>
+        <v>0.1325664336515831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H10">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I10">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J10">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.98374011477995</v>
+        <v>5.33802</v>
       </c>
       <c r="N10">
-        <v>4.98374011477995</v>
+        <v>16.01406</v>
       </c>
       <c r="O10">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="P10">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="Q10">
-        <v>67.5070655579442</v>
+        <v>72.48844863101999</v>
       </c>
       <c r="R10">
-        <v>67.5070655579442</v>
+        <v>652.3960376791799</v>
       </c>
       <c r="S10">
-        <v>0.06455857649158621</v>
+        <v>0.05381994790370089</v>
       </c>
       <c r="T10">
-        <v>0.06455857649158621</v>
+        <v>0.0538199479037009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H11">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I11">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J11">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.06772483287142</v>
+        <v>5.091788666666666</v>
       </c>
       <c r="N11">
-        <v>5.06772483287142</v>
+        <v>15.275366</v>
       </c>
       <c r="O11">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676195</v>
       </c>
       <c r="P11">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676196</v>
       </c>
       <c r="Q11">
-        <v>68.64467741961661</v>
+        <v>69.14471305908864</v>
       </c>
       <c r="R11">
-        <v>68.64467741961661</v>
+        <v>622.3024175317978</v>
       </c>
       <c r="S11">
-        <v>0.06564650116706297</v>
+        <v>0.05133734994935473</v>
       </c>
       <c r="T11">
-        <v>0.06564650116706297</v>
+        <v>0.05133734994935475</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H12">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I12">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J12">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.684767107799819</v>
+        <v>0.855806</v>
       </c>
       <c r="N12">
-        <v>0.684767107799819</v>
+        <v>2.567418</v>
       </c>
       <c r="O12">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744256</v>
       </c>
       <c r="P12">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744257</v>
       </c>
       <c r="Q12">
-        <v>9.275487279337657</v>
+        <v>11.621546803706</v>
       </c>
       <c r="R12">
-        <v>9.275487279337657</v>
+        <v>104.593921233354</v>
       </c>
       <c r="S12">
-        <v>0.008870364162190829</v>
+        <v>0.008628561589442271</v>
       </c>
       <c r="T12">
-        <v>0.008870364162190829</v>
+        <v>0.008628561589442274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H13">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I13">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J13">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.159362987200661</v>
+        <v>10.113102</v>
       </c>
       <c r="N13">
-        <v>9.159362987200661</v>
+        <v>30.339306</v>
       </c>
       <c r="O13">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792178</v>
       </c>
       <c r="P13">
-        <v>0.2478067013542985</v>
+        <v>0.2532921151792179</v>
       </c>
       <c r="Q13">
-        <v>124.0678091966005</v>
+        <v>137.332395687402</v>
       </c>
       <c r="R13">
-        <v>124.0678091966005</v>
+        <v>1235.991561186618</v>
       </c>
       <c r="S13">
-        <v>0.1186489308039503</v>
+        <v>0.101964140783439</v>
       </c>
       <c r="T13">
-        <v>0.1186489308039503</v>
+        <v>0.1019641407834391</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H14">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I14">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J14">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.12580728471186</v>
+        <v>5.379592</v>
       </c>
       <c r="N14">
-        <v>4.12580728471186</v>
+        <v>16.138776</v>
       </c>
       <c r="O14">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116526</v>
       </c>
       <c r="P14">
-        <v>0.1116237772295619</v>
+        <v>0.1347369221116527</v>
       </c>
       <c r="Q14">
-        <v>56.37145414176529</v>
+        <v>0.1841524001466667</v>
       </c>
       <c r="R14">
-        <v>56.37145414176529</v>
+        <v>1.65737160132</v>
       </c>
       <c r="S14">
-        <v>0.05390933236505985</v>
+        <v>0.0001367262338953386</v>
       </c>
       <c r="T14">
-        <v>0.05390933236505985</v>
+        <v>0.0001367262338953387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H15">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I15">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J15">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.9403220212655</v>
+        <v>13.148327</v>
       </c>
       <c r="N15">
-        <v>12.9403220212655</v>
+        <v>39.444981</v>
       </c>
       <c r="O15">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="P15">
-        <v>0.3501006040521866</v>
+        <v>0.3293121691937864</v>
       </c>
       <c r="Q15">
-        <v>176.8053423397812</v>
+        <v>0.4500891470883334</v>
       </c>
       <c r="R15">
-        <v>176.8053423397812</v>
+        <v>4.050802323795</v>
       </c>
       <c r="S15">
-        <v>0.169083060020828</v>
+        <v>0.000334174270601636</v>
       </c>
       <c r="T15">
-        <v>0.169083060020828</v>
+        <v>0.000334174270601636</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H16">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I16">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J16">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.98374011477995</v>
+        <v>5.33802</v>
       </c>
       <c r="N16">
-        <v>4.98374011477995</v>
+        <v>16.01406</v>
       </c>
       <c r="O16">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="P16">
-        <v>0.1348351626610402</v>
+        <v>0.133695712420281</v>
       </c>
       <c r="Q16">
-        <v>68.09350460352742</v>
+        <v>0.1827293213</v>
       </c>
       <c r="R16">
-        <v>68.09350460352742</v>
+        <v>1.6445638917</v>
       </c>
       <c r="S16">
-        <v>0.06511940178696866</v>
+        <v>0.0001356696513523694</v>
       </c>
       <c r="T16">
-        <v>0.06511940178696866</v>
+        <v>0.0001356696513523694</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H17">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I17">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J17">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.06772483287142</v>
+        <v>5.091788666666666</v>
       </c>
       <c r="N17">
-        <v>5.06772483287142</v>
+        <v>15.275366</v>
       </c>
       <c r="O17">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676195</v>
       </c>
       <c r="P17">
-        <v>0.1371073704536018</v>
+        <v>0.1275286179676196</v>
       </c>
       <c r="Q17">
-        <v>69.24099898651653</v>
+        <v>0.1743004123744444</v>
       </c>
       <c r="R17">
-        <v>69.24099898651653</v>
+        <v>1.56870371137</v>
       </c>
       <c r="S17">
-        <v>0.06621677734737251</v>
+        <v>0.000129411503360162</v>
       </c>
       <c r="T17">
-        <v>0.06621677734737251</v>
+        <v>0.0001294115033601621</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H18">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I18">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J18">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.684767107799819</v>
+        <v>0.855806</v>
       </c>
       <c r="N18">
-        <v>0.684767107799819</v>
+        <v>2.567418</v>
       </c>
       <c r="O18">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744256</v>
       </c>
       <c r="P18">
-        <v>0.018526384249311</v>
+        <v>0.02143446312744257</v>
       </c>
       <c r="Q18">
-        <v>9.356064147291503</v>
+        <v>0.02929566572333333</v>
       </c>
       <c r="R18">
-        <v>9.356064147291503</v>
+        <v>0.26366099151</v>
       </c>
       <c r="S18">
-        <v>0.008947421694617352</v>
+        <v>2.175093042837341E-05</v>
       </c>
       <c r="T18">
-        <v>0.008947421694617352</v>
+        <v>2.175093042837342E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03423166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.102695</v>
+      </c>
+      <c r="I19">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="J19">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.113102</v>
+      </c>
+      <c r="N19">
+        <v>30.339306</v>
+      </c>
+      <c r="O19">
+        <v>0.2532921151792178</v>
+      </c>
+      <c r="P19">
+        <v>0.2532921151792179</v>
+      </c>
+      <c r="Q19">
+        <v>0.34618833663</v>
+      </c>
+      <c r="R19">
+        <v>3.11569502967</v>
+      </c>
+      <c r="S19">
+        <v>0.0002570318249895934</v>
+      </c>
+      <c r="T19">
+        <v>0.0002570318249895935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H20">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I20">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J20">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.379592</v>
+      </c>
+      <c r="N20">
+        <v>16.138776</v>
+      </c>
+      <c r="O20">
+        <v>0.1347369221116526</v>
+      </c>
+      <c r="P20">
+        <v>0.1347369221116527</v>
+      </c>
+      <c r="Q20">
+        <v>101.6708530339093</v>
+      </c>
+      <c r="R20">
+        <v>915.0376773051842</v>
+      </c>
+      <c r="S20">
+        <v>0.07548678605970648</v>
+      </c>
+      <c r="T20">
+        <v>0.07548678605970652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H21">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I21">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J21">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.148327</v>
+      </c>
+      <c r="N21">
+        <v>39.444981</v>
+      </c>
+      <c r="O21">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="P21">
+        <v>0.3293121691937864</v>
+      </c>
+      <c r="Q21">
+        <v>248.4949829018227</v>
+      </c>
+      <c r="R21">
+        <v>2236.454846116404</v>
+      </c>
+      <c r="S21">
+        <v>0.1844981826302185</v>
+      </c>
+      <c r="T21">
+        <v>0.1844981826302186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H22">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I22">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J22">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.33802</v>
+      </c>
+      <c r="N22">
+        <v>16.01406</v>
+      </c>
+      <c r="O22">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="P22">
+        <v>0.133695712420281</v>
+      </c>
+      <c r="Q22">
+        <v>100.88516878456</v>
+      </c>
+      <c r="R22">
+        <v>907.9665190610401</v>
+      </c>
+      <c r="S22">
+        <v>0.07490344504238136</v>
+      </c>
+      <c r="T22">
+        <v>0.07490344504238139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>13.6631331159478</v>
-      </c>
-      <c r="H19">
-        <v>13.6631331159478</v>
-      </c>
-      <c r="I19">
-        <v>0.4829556363622389</v>
-      </c>
-      <c r="J19">
-        <v>0.4829556363622389</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>9.159362987200661</v>
-      </c>
-      <c r="N19">
-        <v>9.159362987200661</v>
-      </c>
-      <c r="O19">
-        <v>0.2478067013542985</v>
-      </c>
-      <c r="P19">
-        <v>0.2478067013542985</v>
-      </c>
-      <c r="Q19">
-        <v>125.1455957514079</v>
-      </c>
-      <c r="R19">
-        <v>125.1455957514079</v>
-      </c>
-      <c r="S19">
-        <v>0.1196796431473925</v>
-      </c>
-      <c r="T19">
-        <v>0.1196796431473925</v>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H23">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I23">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J23">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.091788666666666</v>
+      </c>
+      <c r="N23">
+        <v>15.275366</v>
+      </c>
+      <c r="O23">
+        <v>0.1275286179676195</v>
+      </c>
+      <c r="P23">
+        <v>0.1275286179676196</v>
+      </c>
+      <c r="Q23">
+        <v>96.23155384430488</v>
+      </c>
+      <c r="R23">
+        <v>866.083984598744</v>
+      </c>
+      <c r="S23">
+        <v>0.07144831090199864</v>
+      </c>
+      <c r="T23">
+        <v>0.0714483109019987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H24">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I24">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J24">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.855806</v>
+      </c>
+      <c r="N24">
+        <v>2.567418</v>
+      </c>
+      <c r="O24">
+        <v>0.02143446312744256</v>
+      </c>
+      <c r="P24">
+        <v>0.02143446312744257</v>
+      </c>
+      <c r="Q24">
+        <v>16.17418682523467</v>
+      </c>
+      <c r="R24">
+        <v>145.567681427112</v>
+      </c>
+      <c r="S24">
+        <v>0.01200872564882489</v>
+      </c>
+      <c r="T24">
+        <v>0.01200872564882489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H25">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I25">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J25">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.113102</v>
+      </c>
+      <c r="N25">
+        <v>30.339306</v>
+      </c>
+      <c r="O25">
+        <v>0.2532921151792178</v>
+      </c>
+      <c r="P25">
+        <v>0.2532921151792179</v>
+      </c>
+      <c r="Q25">
+        <v>191.131168898856</v>
+      </c>
+      <c r="R25">
+        <v>1720.180520089704</v>
+      </c>
+      <c r="S25">
+        <v>0.1419077073268734</v>
+      </c>
+      <c r="T25">
+        <v>0.1419077073268735</v>
       </c>
     </row>
   </sheetData>
